--- a/new/routine_final.xlsx
+++ b/new/routine_final.xlsx
@@ -64,7 +64,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -94,13 +94,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
@@ -110,7 +103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -121,14 +114,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -591,180 +583,184 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>101 (A)</t>
-        </is>
-      </c>
-      <c r="D2" s="5" t="n"/>
-      <c r="E2" s="6" t="n"/>
-      <c r="F2" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G2" s="7" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="H2" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I2" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J2" s="7" t="inlineStr">
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>1251 (SFA)</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="n"/>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="H2" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I2" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J2" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="8" t="inlineStr">
+      <c r="B3" s="7" t="inlineStr">
         <is>
           <t>2nd Year</t>
         </is>
       </c>
-      <c r="C3" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D3" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E3" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F3" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G3" s="7" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="H3" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I3" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J3" s="7" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J3" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="9" t="inlineStr">
+      <c r="B4" s="8" t="inlineStr">
         <is>
           <t>3rd Year</t>
         </is>
       </c>
-      <c r="C4" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D4" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E4" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F4" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G4" s="7" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="H4" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I4" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J4" s="7" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I4" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J4" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="10" t="inlineStr">
+      <c r="B5" s="9" t="inlineStr">
         <is>
           <t>4th Year</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D5" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E5" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F5" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G5" s="7" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="H5" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I5" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J5" s="7" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J5" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="C6" s="11" t="n"/>
+      <c r="C6" s="10" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -777,182 +773,186 @@
           <t>1st Year</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>103 (B)</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="6" t="n"/>
-      <c r="F7" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G7" s="7" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="H7" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I7" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J7" s="7" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>1253 (GR)</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="n"/>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>1251 (UJ)</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>1201 (MAR)</t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="H7" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I7" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="8" t="inlineStr">
+      <c r="B8" s="7" t="inlineStr">
         <is>
           <t>2nd Year</t>
         </is>
       </c>
-      <c r="C8" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E8" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I8" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J8" s="7" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="H8" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I8" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J8" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="9" t="inlineStr">
+      <c r="B9" s="8" t="inlineStr">
         <is>
           <t>3rd Year</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D9" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="H9" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I9" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J9" s="7" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="H9" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I9" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J9" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="10" t="inlineStr">
+      <c r="B10" s="9" t="inlineStr">
         <is>
           <t>4th Year</t>
         </is>
       </c>
-      <c r="C10" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F10" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I10" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J10" s="7" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="H10" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I10" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J10" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="C11" s="11" t="n"/>
+      <c r="C11" s="10" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -965,190 +965,190 @@
           <t>1st Year</t>
         </is>
       </c>
-      <c r="C12" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E12" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F12" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G12" s="7" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="H12" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I12" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J12" s="7" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>1251 (UJ)</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>1201 (MAR)</t>
+        </is>
+      </c>
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="H12" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I12" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J12" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="8" t="inlineStr">
+      <c r="B13" s="7" t="inlineStr">
         <is>
           <t>2nd Year</t>
         </is>
       </c>
-      <c r="C13" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D13" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G13" s="7" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="H13" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I13" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J13" s="7" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="H13" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I13" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J13" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="9" t="inlineStr">
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>3rd Year</t>
         </is>
       </c>
-      <c r="C14" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D14" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F14" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G14" s="7" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="H14" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I14" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J14" s="7" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G14" s="4" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="H14" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I14" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J14" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="10" t="inlineStr">
+      <c r="B15" s="9" t="inlineStr">
         <is>
           <t>4th Year</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D15" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E15" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F15" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G15" s="7" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="H15" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I15" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J15" s="7" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G15" s="4" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="H15" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I15" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J15" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="C16" s="11" t="n"/>
+      <c r="C16" s="10" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -1161,190 +1161,190 @@
           <t>1st Year</t>
         </is>
       </c>
-      <c r="C17" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D17" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F17" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G17" s="7" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="H17" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I17" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J17" s="7" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>1251 (SFA)</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>1251 (AB)</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>1251 (BC)</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>1201 (MAR)</t>
+        </is>
+      </c>
+      <c r="G17" s="4" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="H17" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I17" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J17" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="8" t="inlineStr">
+      <c r="B18" s="7" t="inlineStr">
         <is>
           <t>2nd Year</t>
         </is>
       </c>
-      <c r="C18" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E18" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F18" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G18" s="7" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="H18" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I18" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J18" s="7" t="inlineStr">
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G18" s="4" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="H18" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I18" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J18" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="9" t="inlineStr">
+      <c r="B19" s="8" t="inlineStr">
         <is>
           <t>3rd Year</t>
         </is>
       </c>
-      <c r="C19" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D19" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E19" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F19" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G19" s="7" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="H19" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I19" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J19" s="7" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F19" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G19" s="4" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="H19" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I19" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J19" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="10" t="inlineStr">
+      <c r="B20" s="9" t="inlineStr">
         <is>
           <t>4th Year</t>
         </is>
       </c>
-      <c r="C20" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D20" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E20" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F20" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G20" s="7" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="H20" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I20" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J20" s="7" t="inlineStr">
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" s="4" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="H20" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I20" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J20" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="C21" s="11" t="n"/>
+      <c r="C21" s="10" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
@@ -1357,183 +1357,183 @@
           <t>1st Year</t>
         </is>
       </c>
-      <c r="C22" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D22" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E22" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F22" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G22" s="7" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="H22" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I22" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J22" s="7" t="inlineStr">
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>1251 (UJ)</t>
+        </is>
+      </c>
+      <c r="E22" s="5" t="inlineStr">
+        <is>
+          <t>1251 (BC)</t>
+        </is>
+      </c>
+      <c r="F22" s="5" t="inlineStr">
+        <is>
+          <t>1251 (AB)</t>
+        </is>
+      </c>
+      <c r="G22" s="4" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="H22" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I22" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J22" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="8" t="inlineStr">
+      <c r="B23" s="7" t="inlineStr">
         <is>
           <t>2nd Year</t>
         </is>
       </c>
-      <c r="C23" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D23" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E23" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F23" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G23" s="7" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="H23" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I23" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J23" s="7" t="inlineStr">
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G23" s="4" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="H23" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I23" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J23" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="9" t="inlineStr">
+      <c r="B24" s="8" t="inlineStr">
         <is>
           <t>3rd Year</t>
         </is>
       </c>
-      <c r="C24" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D24" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E24" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F24" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G24" s="7" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="H24" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I24" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J24" s="7" t="inlineStr">
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F24" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G24" s="4" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="H24" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I24" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J24" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="10" t="inlineStr">
+      <c r="B25" s="9" t="inlineStr">
         <is>
           <t>4th Year</t>
         </is>
       </c>
-      <c r="C25" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D25" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E25" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F25" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G25" s="7" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="H25" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I25" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J25" s="7" t="inlineStr">
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F25" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G25" s="4" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="H25" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I25" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J25" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1541,16 +1541,16 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C21:J21"/>
     <mergeCell ref="A7:A10"/>
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C11:J11"/>
     <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C7:E7"/>
     <mergeCell ref="A22:A25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/new/routine_final.xlsx
+++ b/new/routine_final.xlsx
@@ -64,7 +64,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -99,11 +99,18 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -114,23 +121,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -583,36 +600,36 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ME 1251 (A)</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E2" s="5" t="inlineStr">
-        <is>
-          <t>1251 (SFA)</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="n"/>
-      <c r="G2" s="4" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="H2" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I2" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J2" s="4" t="inlineStr">
+          <t>Math-1251 (B)</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="n"/>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="H2" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I2" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J2" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -624,143 +641,139 @@
           <t>2nd Year</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G3" s="4" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="H3" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I3" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J3" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="C3" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>CSE-2205 (AI)</t>
+        </is>
+      </c>
+      <c r="E3" s="8" t="inlineStr">
+        <is>
+          <t>ECE 2251 (F)</t>
+        </is>
+      </c>
+      <c r="F3" s="8" t="inlineStr">
+        <is>
+          <t>CSE-2203 (AS)</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="H3" s="8" t="inlineStr">
+        <is>
+          <t>CSE-2205 (AI)</t>
+        </is>
+      </c>
+      <c r="I3" s="5" t="n"/>
+      <c r="J3" s="8" t="inlineStr">
+        <is>
+          <t>CSE-2206 (AI)</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="8" t="inlineStr">
+      <c r="B4" s="9" t="inlineStr">
         <is>
           <t>3rd Year</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G4" s="4" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="H4" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I4" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J4" s="4" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F4" s="10" t="inlineStr">
+        <is>
+          <t>CSE 3105 (AS)</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I4" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J4" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="9" t="inlineStr">
+      <c r="B5" s="11" t="inlineStr">
         <is>
           <t>4th Year</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G5" s="4" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="H5" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I5" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J5" s="4" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="H5" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I5" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J5" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="C6" s="10" t="n"/>
+      <c r="C6" s="12" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -773,38 +786,42 @@
           <t>1st Year</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>1253 (GR)</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="n"/>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>1251 (UJ)</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>1201 (MAR)</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>ME 1251 (A)</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>Math-1251 (B)</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>ECE 1251 (C)</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>CSE 1201 (MAR)</t>
+        </is>
+      </c>
+      <c r="G7" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I7" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J7" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -816,143 +833,139 @@
           <t>2nd Year</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G8" s="4" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="H8" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I8" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J8" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Math 2251 (SFA)</t>
+        </is>
+      </c>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>CSE-2201 (SC)</t>
+        </is>
+      </c>
+      <c r="G8" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>CSE-2201 (SC)</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="n"/>
+      <c r="J8" s="8" t="inlineStr">
+        <is>
+          <t>CSE-2202 (SC)</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="8" t="inlineStr">
+      <c r="B9" s="9" t="inlineStr">
         <is>
           <t>3rd Year</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G9" s="4" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="H9" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I9" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J9" s="4" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G9" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="H9" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I9" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J9" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="9" t="inlineStr">
+      <c r="B10" s="11" t="inlineStr">
         <is>
           <t>4th Year</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E10" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F10" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G10" s="4" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="H10" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I10" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J10" s="4" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I10" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J10" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="C11" s="10" t="n"/>
+      <c r="C11" s="12" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -967,44 +980,40 @@
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="inlineStr">
-        <is>
-          <t>1251 (UJ)</t>
+          <t>ME 1253 (A)</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>ECE 1251 (C)</t>
         </is>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F12" s="5" t="inlineStr">
-        <is>
-          <t>1201 (MAR)</t>
-        </is>
-      </c>
-      <c r="G12" s="4" t="inlineStr">
+          <t>Chem 1251 (KAR)</t>
+        </is>
+      </c>
+      <c r="F12" s="4" t="inlineStr">
+        <is>
+          <t>CSE 1201 (MAR)</t>
+        </is>
+      </c>
+      <c r="G12" s="6" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
       <c r="H12" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ECE 1251 (C)</t>
         </is>
       </c>
       <c r="I12" s="4" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J12" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>ECE 1252 (C)</t>
+        </is>
+      </c>
+      <c r="J12" s="5" t="n"/>
     </row>
     <row r="13">
       <c r="B13" s="7" t="inlineStr">
@@ -1012,143 +1021,139 @@
           <t>2nd Year</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D13" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E13" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F13" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G13" s="4" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="H13" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I13" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J13" s="4" t="inlineStr">
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>Math 2251 (SFA)</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n"/>
+      <c r="E13" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F13" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G13" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="H13" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I13" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J13" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="8" t="inlineStr">
+      <c r="B14" s="9" t="inlineStr">
         <is>
           <t>3rd Year</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D14" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F14" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G14" s="4" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="H14" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I14" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J14" s="4" t="inlineStr">
+      <c r="C14" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D14" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E14" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F14" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G14" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="H14" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I14" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J14" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="9" t="inlineStr">
+      <c r="B15" s="11" t="inlineStr">
         <is>
           <t>4th Year</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D15" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F15" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G15" s="4" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="H15" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I15" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J15" s="4" t="inlineStr">
+      <c r="C15" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D15" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E15" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F15" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G15" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="H15" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I15" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J15" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="C16" s="10" t="n"/>
+      <c r="C16" s="12" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -1161,46 +1166,38 @@
           <t>1st Year</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr">
-        <is>
-          <t>1251 (SFA)</t>
-        </is>
-      </c>
-      <c r="D17" s="5" t="inlineStr">
-        <is>
-          <t>1251 (AB)</t>
-        </is>
-      </c>
-      <c r="E17" s="5" t="inlineStr">
-        <is>
-          <t>1251 (BC)</t>
-        </is>
-      </c>
-      <c r="F17" s="5" t="inlineStr">
-        <is>
-          <t>1201 (MAR)</t>
-        </is>
-      </c>
-      <c r="G17" s="4" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>ME 1253 (A)</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>Chem 1251 (KAR)</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>Econ 1251 (D)</t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="inlineStr">
+        <is>
+          <t>CSE 1201 (MAR)</t>
+        </is>
+      </c>
+      <c r="G17" s="6" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
       <c r="H17" s="4" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I17" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J17" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>CSE 1202 (MAR)</t>
+        </is>
+      </c>
+      <c r="I17" s="13" t="n"/>
+      <c r="J17" s="5" t="n"/>
     </row>
     <row r="18">
       <c r="B18" s="7" t="inlineStr">
@@ -1208,143 +1205,139 @@
           <t>2nd Year</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D18" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F18" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G18" s="4" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="H18" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I18" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J18" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>CSE-2203 (AS)</t>
+        </is>
+      </c>
+      <c r="D18" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E18" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F18" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G18" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>CSE-2203 (AS)</t>
+        </is>
+      </c>
+      <c r="I18" s="8" t="inlineStr">
+        <is>
+          <t>CSE-2204 (AS)</t>
+        </is>
+      </c>
+      <c r="J18" s="5" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="8" t="inlineStr">
+      <c r="B19" s="9" t="inlineStr">
         <is>
           <t>3rd Year</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D19" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F19" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G19" s="4" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="H19" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I19" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J19" s="4" t="inlineStr">
+      <c r="C19" s="10" t="inlineStr">
+        <is>
+          <t>CSE 3105 (AS)</t>
+        </is>
+      </c>
+      <c r="D19" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E19" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F19" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G19" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="H19" s="10" t="inlineStr">
+        <is>
+          <t>CSE 3105 (AS)</t>
+        </is>
+      </c>
+      <c r="I19" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J19" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="9" t="inlineStr">
+      <c r="B20" s="11" t="inlineStr">
         <is>
           <t>4th Year</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D20" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F20" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G20" s="4" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="H20" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I20" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J20" s="4" t="inlineStr">
+      <c r="C20" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D20" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E20" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F20" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="H20" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I20" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J20" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="C21" s="10" t="n"/>
+      <c r="C21" s="12" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
@@ -1357,46 +1350,38 @@
           <t>1st Year</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D22" s="5" t="inlineStr">
-        <is>
-          <t>1251 (UJ)</t>
-        </is>
-      </c>
-      <c r="E22" s="5" t="inlineStr">
-        <is>
-          <t>1251 (BC)</t>
-        </is>
-      </c>
-      <c r="F22" s="5" t="inlineStr">
-        <is>
-          <t>1251 (AB)</t>
-        </is>
-      </c>
-      <c r="G22" s="4" t="inlineStr">
+      <c r="C22" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D22" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>Econ 1251 (D)</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>Chem 1251 (KAR)</t>
+        </is>
+      </c>
+      <c r="G22" s="6" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
       <c r="H22" s="4" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I22" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J22" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>CSE 1200 (MM)</t>
+        </is>
+      </c>
+      <c r="I22" s="13" t="n"/>
+      <c r="J22" s="5" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="7" t="inlineStr">
@@ -1404,154 +1389,150 @@
           <t>2nd Year</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D23" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F23" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G23" s="4" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="H23" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I23" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J23" s="4" t="inlineStr">
+      <c r="C23" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D23" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E23" s="8" t="inlineStr">
+        <is>
+          <t>ECE 2251 (F)</t>
+        </is>
+      </c>
+      <c r="F23" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G23" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="H23" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I23" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J23" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="8" t="inlineStr">
+      <c r="B24" s="9" t="inlineStr">
         <is>
           <t>3rd Year</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D24" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F24" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G24" s="4" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="H24" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I24" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J24" s="4" t="inlineStr">
+      <c r="C24" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D24" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E24" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F24" s="10" t="inlineStr">
+        <is>
+          <t>CSE 3106 (AS)</t>
+        </is>
+      </c>
+      <c r="G24" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="H24" s="10" t="inlineStr">
+        <is>
+          <t>CSE 3106 (AS)</t>
+        </is>
+      </c>
+      <c r="I24" s="5" t="n"/>
+      <c r="J24" s="6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="9" t="inlineStr">
+      <c r="B25" s="11" t="inlineStr">
         <is>
           <t>4th Year</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D25" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F25" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G25" s="4" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="H25" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I25" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J25" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D25" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E25" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F25" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G25" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="H25" s="14" t="inlineStr">
+        <is>
+          <t>CSE-4121 (MM)</t>
+        </is>
+      </c>
+      <c r="I25" s="13" t="n"/>
+      <c r="J25" s="5" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="C7:D7"/>
+  <mergeCells count="19">
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I12:J12"/>
     <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="E2:F2"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="C6:J6"/>
     <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C16:J16"/>
     <mergeCell ref="A22:A25"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H25:J25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
